--- a/templates/AutomationOrg/RSTK-9617-SYDATA-Deallocate WO Components.xlsx
+++ b/templates/AutomationOrg/RSTK-9617-SYDATA-Deallocate WO Components.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F44529-5DE0-4439-B21C-E5145F86E6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25DFD1E-FE5F-4115-B1AC-1FBA2FFE2003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77C97FEF-7E82-40F3-B240-8FA62379481A}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     <t>1020_PC1</t>
   </si>
   <si>
-    <t>Pro-Lot Track (Lot Track)</t>
+    <t>Pro-SYDATA1 (Lot track)</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="A3:XFD3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
